--- a/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="-21140" windowWidth="19560" windowHeight="20720" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="12080" yWindow="-21140" windowWidth="19560" windowHeight="20720" tabRatio="500" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -558,9 +558,6 @@
     <t>Intervention</t>
   </si>
   <si>
-    <t>Zinc supplementation</t>
-  </si>
-  <si>
     <t>Complements group</t>
   </si>
   <si>
@@ -576,9 +573,6 @@
     <t>Complementary feeding (food insecure with neither promotion nor supplementation)</t>
   </si>
   <si>
-    <t>Breastfeeding promotion (dual delivery)</t>
-  </si>
-  <si>
     <t>baseline coverage</t>
   </si>
   <si>
@@ -591,15 +585,6 @@
     <t>Vitamin A supplementation</t>
   </si>
   <si>
-    <t>Complementary feeding (education)</t>
-  </si>
-  <si>
-    <t>Complementary feeding (supplementation)</t>
-  </si>
-  <si>
-    <t>Balanced energy supplementation</t>
-  </si>
-  <si>
     <t>Multiple micronutrient supplementation</t>
   </si>
   <si>
@@ -625,6 +610,21 @@
   </si>
   <si>
     <t>fraction food insecure (not poor)</t>
+  </si>
+  <si>
+    <t>Prophylactic zinc supplementation</t>
+  </si>
+  <si>
+    <t>Breastfeeding promotion</t>
+  </si>
+  <si>
+    <t>Complementary feeding education</t>
+  </si>
+  <si>
+    <t>Public provision of complementary foods</t>
+  </si>
+  <si>
+    <t>Balanced energy-protein supplementation</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="30">
         <v>0.56799999999999995</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6" s="31">
         <v>0.51200000000000001</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" s="29">
         <v>0.20599999999999999</v>
@@ -2730,7 +2730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2759,7 +2761,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2819,7 +2821,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2839,7 +2841,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2859,7 +2861,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2879,7 +2881,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -2899,7 +2901,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2926,7 +2928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2956,7 +2960,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -3204,7 +3208,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3220,18 +3224,18 @@
         <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="23">
         <v>0</v>
@@ -3248,7 +3252,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="21">
         <v>0.6</v>
@@ -3265,7 +3269,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" s="21">
         <v>0.14000000000000001</v>
@@ -3282,7 +3286,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B5" s="21">
         <v>0</v>
@@ -3299,7 +3303,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B6" s="21">
         <v>0.61</v>
@@ -3316,7 +3320,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B7" s="21">
         <v>0</v>
@@ -3333,7 +3337,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="21">
         <v>0</v>
@@ -3455,7 +3459,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3488,14 +3492,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3518,7 +3522,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3541,7 +3545,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -3564,7 +3568,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -3589,7 +3593,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -3612,7 +3616,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3636,7 +3640,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -3766,12 +3770,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3779,7 +3783,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3796,10 +3800,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C2" s="14">
         <v>0.21</v>
@@ -3816,7 +3820,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" s="14">
         <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
@@ -3835,10 +3839,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="14">
         <v>0.1</v>
@@ -3855,7 +3859,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -3880,17 +3884,17 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3913,7 +3917,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3957,7 +3961,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4029,17 +4033,17 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4062,7 +4066,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4106,7 +4110,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4177,16 +4181,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4253,7 +4259,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4364,7 +4370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
@@ -9,27 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="-21140" windowWidth="19560" windowHeight="20720" tabRatio="500" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="12080" yWindow="-21140" windowWidth="19560" windowHeight="20720" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
     <sheet name="projected births" sheetId="2" r:id="rId2"/>
-    <sheet name="total mortality" sheetId="3" r:id="rId3"/>
-    <sheet name="mortality" sheetId="4" r:id="rId4"/>
+    <sheet name="mortality rates" sheetId="3" r:id="rId3"/>
+    <sheet name="causes of death" sheetId="4" r:id="rId4"/>
     <sheet name="distributions" sheetId="5" r:id="rId5"/>
     <sheet name="birth outcome distribution" sheetId="6" r:id="rId6"/>
     <sheet name="Incidence of conditions" sheetId="12" r:id="rId7"/>
-    <sheet name="RRStunting" sheetId="7" r:id="rId8"/>
-    <sheet name="RRWasting" sheetId="8" r:id="rId9"/>
-    <sheet name="RRBreastfeeding" sheetId="9" r:id="rId10"/>
-    <sheet name="RR Death by Birth Outcome" sheetId="10" r:id="rId11"/>
+    <sheet name="RR death by stunting" sheetId="7" r:id="rId8"/>
+    <sheet name="RR death by wasting" sheetId="8" r:id="rId9"/>
+    <sheet name="RR death by breastfeeding" sheetId="9" r:id="rId10"/>
+    <sheet name="RR death by birth outcome" sheetId="10" r:id="rId11"/>
     <sheet name="OR stunting progression" sheetId="11" r:id="rId12"/>
     <sheet name="RR diarrhoea" sheetId="13" r:id="rId13"/>
     <sheet name="OR stunting by condition" sheetId="14" r:id="rId14"/>
     <sheet name="OR stunting by birth outcome" sheetId="15" r:id="rId15"/>
     <sheet name="OR stunting by intervention" sheetId="16" r:id="rId16"/>
     <sheet name="OR stunting for complements" sheetId="17" r:id="rId17"/>
-    <sheet name="OR appropriateBF by interv" sheetId="18" r:id="rId18"/>
+    <sheet name="OR correctBF by interventn" sheetId="18" r:id="rId18"/>
     <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId19"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
     <sheet name="Interventions target population" sheetId="21" r:id="rId21"/>
@@ -558,9 +558,6 @@
     <t>Intervention</t>
   </si>
   <si>
-    <t>Complements group</t>
-  </si>
-  <si>
     <t>Complementary feeding (food secure with promotion)</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Balanced energy-protein supplementation</t>
+  </si>
+  <si>
+    <t>Food security &amp; education</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="30">
         <v>0.56799999999999995</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="31">
         <v>0.51200000000000001</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="29">
         <v>0.20599999999999999</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2821,7 +2821,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -3224,18 +3224,18 @@
         <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="23">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="21">
         <v>0.6</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="21">
         <v>0.14000000000000001</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="21">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="21">
         <v>0.61</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="21">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="21">
         <v>0</v>
@@ -3492,14 +3492,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -3783,7 +3783,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="14">
         <v>0.21</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="14">
         <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
@@ -3839,10 +3839,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="14">
         <v>0.1</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -3894,7 +3894,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4043,7 +4043,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4181,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4192,7 +4192,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4370,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="-21140" windowWidth="19560" windowHeight="20720" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-2500" yWindow="-21140" windowWidth="18960" windowHeight="21140" tabRatio="500" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -3207,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3255,7 +3255,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="21">
-        <v>0.6</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C3" s="2">
         <v>0.85</v>
@@ -3278,7 +3278,7 @@
         <v>0.85</v>
       </c>
       <c r="D4" s="21">
-        <v>3.91</v>
+        <v>3.56</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="13"/>
@@ -3295,7 +3295,7 @@
         <v>0.85</v>
       </c>
       <c r="D5" s="21">
-        <v>230.4</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="13"/>
@@ -3312,7 +3312,7 @@
         <v>0.85</v>
       </c>
       <c r="D6" s="21">
-        <v>3.91</v>
+        <v>3.56</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="13"/>
@@ -4370,7 +4370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21140" windowWidth="18960" windowHeight="21140" tabRatio="500" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="5520" yWindow="-21140" windowWidth="18960" windowHeight="14180" tabRatio="500" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="OR stunting by condition" sheetId="14" r:id="rId14"/>
     <sheet name="OR stunting by birth outcome" sheetId="15" r:id="rId15"/>
     <sheet name="OR stunting by intervention" sheetId="16" r:id="rId16"/>
-    <sheet name="OR stunting for complements" sheetId="17" r:id="rId17"/>
+    <sheet name="OR stunting for compfeeding" sheetId="17" r:id="rId17"/>
     <sheet name="OR correctBF by interventn" sheetId="18" r:id="rId18"/>
     <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId19"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
@@ -2812,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3207,7 +3207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/Barisal.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/2016Sept12/subregionSpreadsheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="-21140" windowWidth="18960" windowHeight="14180" tabRatio="500" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="-33480" yWindow="-1840" windowWidth="25600" windowHeight="14640" tabRatio="500" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
     <sheet name="OR stunting by condition" sheetId="14" r:id="rId14"/>
     <sheet name="OR stunting by birth outcome" sheetId="15" r:id="rId15"/>
     <sheet name="OR stunting by intervention" sheetId="16" r:id="rId16"/>
-    <sheet name="OR stunting for compfeeding" sheetId="17" r:id="rId17"/>
+    <sheet name="OR stunting by compfeeding" sheetId="17" r:id="rId17"/>
     <sheet name="OR correctBF by interventn" sheetId="18" r:id="rId18"/>
     <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId19"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1487,12 +1482,12 @@
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1503,7 @@
         <v>867804.96938603546</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1511,7 @@
         <v>177974.0481272742</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1524,7 +1519,7 @@
         <v>204555.28420119709</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -1532,7 +1527,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
@@ -1540,7 +1535,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -1552,6 +1547,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1563,12 +1563,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
@@ -2174,6 +2174,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2185,13 +2190,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2208,7 +2213,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2227,7 +2232,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2246,7 +2251,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -2265,7 +2270,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2289,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2308,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2322,7 +2327,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -2341,7 +2346,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -2360,112 +2365,117 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2477,9 +2487,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2493,7 +2503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>45</v>
       </c>
@@ -2509,6 +2519,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2520,12 +2535,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -2545,7 +2560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -2565,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -2585,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -2605,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -2627,6 +2642,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2636,9 +2656,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -2658,7 +2678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2680,6 +2700,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2691,9 +2716,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -2707,7 +2732,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2723,6 +2748,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2734,12 +2764,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -2759,7 +2789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -2779,7 +2809,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2787,7 +2817,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2795,7 +2825,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2805,6 +2835,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2814,12 +2849,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -2839,7 +2874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -2859,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
@@ -2879,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -2899,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
@@ -2921,6 +2956,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2932,13 +2972,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -2958,7 +2998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -2978,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2986,7 +3026,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2996,6 +3036,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3005,12 +3050,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3027,7 +3072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -3044,14 +3089,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3060,6 +3105,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3071,13 +3121,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3085,7 +3135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -3093,7 +3143,7 @@
         <v>176353.82451576061</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -3101,7 +3151,7 @@
         <v>174658.49535266697</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -3109,7 +3159,7 @@
         <v>172874.16606401838</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -3117,7 +3167,7 @@
         <v>170992.31253564314</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -3125,7 +3175,7 @@
         <v>169202.0905352431</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -3133,7 +3183,7 @@
         <v>167575.14221940024</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -3141,7 +3191,7 @@
         <v>165837.38011789907</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -3149,7 +3199,7 @@
         <v>163993.39377659772</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -3157,7 +3207,7 @@
         <v>162044.77343532885</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -3165,7 +3215,7 @@
         <v>159507.77480490523</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -3173,7 +3223,7 @@
         <v>157416.57333469548</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -3181,7 +3231,7 @@
         <v>155245.66651214968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -3189,7 +3239,7 @@
         <v>152997.78653795182</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -3200,6 +3250,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3211,7 +3266,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -3219,7 +3274,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -3233,7 +3288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -3250,7 +3305,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -3267,7 +3322,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -3284,7 +3339,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -3301,7 +3356,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -3318,7 +3373,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -3335,7 +3390,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -3352,105 +3407,110 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3462,7 +3522,7 @@
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -3472,7 +3532,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -3497,7 +3557,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -3520,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -3543,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -3566,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -3591,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -3614,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -3638,7 +3698,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -3661,100 +3721,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
@@ -3762,6 +3822,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3773,12 +3838,12 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -3798,7 +3863,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3818,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -3837,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3857,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -3876,6 +3941,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3887,12 +3957,12 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>70</v>
       </c>
@@ -3915,7 +3985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -3938,7 +4008,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -3959,7 +4029,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -3982,7 +4052,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -4002,29 +4072,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4036,12 +4111,12 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>70</v>
       </c>
@@ -4064,7 +4139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -4087,7 +4162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -4108,7 +4183,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -4131,7 +4206,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -4151,29 +4226,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4185,12 +4265,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>70</v>
       </c>
@@ -4213,7 +4293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -4236,7 +4316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -4257,7 +4337,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -4280,7 +4360,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -4300,29 +4380,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4334,9 +4419,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -4347,7 +4432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2" s="7">
         <v>19.05</v>
       </c>
@@ -4363,6 +4448,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4374,9 +4464,9 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -4396,7 +4486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4416,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4436,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4456,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4476,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4496,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4516,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4536,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4556,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4576,7 +4666,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4596,7 +4686,7 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -4616,7 +4706,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -4636,7 +4726,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4656,7 +4746,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -4676,7 +4766,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4696,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4716,7 +4806,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -4738,6 +4828,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4749,9 +4844,9 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -4774,7 +4869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -4797,7 +4892,7 @@
         <v>19.610400980935882</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
@@ -4817,7 +4912,7 @@
         <v>25.703446248327705</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>38</v>
       </c>
@@ -4837,7 +4932,7 @@
         <v>46.200712795932716</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="21" t="s">
         <v>39</v>
       </c>
@@ -4857,7 +4952,7 @@
         <v>12.01235975807135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -4880,7 +4975,7 @@
         <v>44.848260450963195</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="25" t="s">
         <v>37</v>
       </c>
@@ -4900,7 +4995,7 @@
         <v>35.216094484570654</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="25" t="s">
         <v>38</v>
       </c>
@@ -4920,7 +5015,7 @@
         <v>16.455886140643354</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
@@ -4940,7 +5035,7 @@
         <v>2.6376811714603732</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -4963,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
@@ -4983,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
@@ -5003,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
@@ -5028,6 +5123,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5037,9 +5137,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -5050,7 +5150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -5063,6 +5163,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5074,9 +5179,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -5096,7 +5201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -5116,7 +5221,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -5139,6 +5244,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5148,9 +5258,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5173,7 +5283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -5196,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
@@ -5216,7 +5326,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -5236,7 +5346,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
@@ -5256,7 +5366,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -5279,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -5299,7 +5409,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
@@ -5319,7 +5429,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
@@ -5339,7 +5449,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5362,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
@@ -5382,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -5402,7 +5512,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
@@ -5422,7 +5532,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5445,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -5465,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
@@ -5485,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -5505,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -5528,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
@@ -5548,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
@@ -5568,7 +5678,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
@@ -5590,6 +5700,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5599,9 +5714,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5624,7 +5739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -5647,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
@@ -5667,7 +5782,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -5687,7 +5802,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
@@ -5707,7 +5822,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -5730,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -5750,7 +5865,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
@@ -5770,7 +5885,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
@@ -5790,7 +5905,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5813,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
@@ -5833,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -5853,7 +5968,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
@@ -5873,7 +5988,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5896,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -5916,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
@@ -5936,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -5956,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -5979,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
@@ -5999,7 +6114,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
@@ -6019,7 +6134,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
@@ -6041,5 +6156,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>